--- a/biology/Zoologie/Bothriurus_asper/Bothriurus_asper.xlsx
+++ b/biology/Zoologie/Bothriurus_asper/Bothriurus_asper.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bothriurus asper est une espèce de scorpions de la famille des Bothriuridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Brésil[1]. Elle se rencontre dans les États, du Pernambouc, du Paraíba, du Rio Grande do Norte, du Ceará, du Piauí, du Maranhão, de Bahia et du Sergipe[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Brésil. Elle se rencontre dans les États, du Pernambouc, du Paraíba, du Rio Grande do Norte, du Ceará, du Piauí, du Maranhão, de Bahia et du Sergipe.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 24 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 24 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pocock, 1893 : A contribution to the study of neotropical scorpions. Annals and Magazine of Natural History, sér. 6, vol. 12, no 68, p. 77-103 (texte intégral).</t>
         </is>
